--- a/auxiliares_data_entry/kilbel/kilbel_con_precios.xlsx
+++ b/auxiliares_data_entry/kilbel/kilbel_con_precios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="271">
   <si>
     <t>COD</t>
   </si>
@@ -652,9 +652,6 @@
     <t>Crema de leche - pote La Paulina 350 Cm3</t>
   </si>
   <si>
-    <t>Crema de leche doble - pote Ilolay 350 Cm3</t>
-  </si>
-  <si>
     <t>Crema de leche - pote Ilolay 200 Cm3</t>
   </si>
   <si>
@@ -664,9 +661,6 @@
     <t>Crema de leche doble - pote Milkaut 200 Cm3</t>
   </si>
   <si>
-    <t>Crema de leche - pote Milkaut 330 Cm3</t>
-  </si>
-  <si>
     <t>Dulce de leche Tregar 400 Gr</t>
   </si>
   <si>
@@ -679,9 +673,6 @@
     <t>Flan vainilla súper cremoso - pote Danette 95 Gr</t>
   </si>
   <si>
-    <t>Postre vainilla - pack Serenito 95 Gr</t>
-  </si>
-  <si>
     <t>Postre vainilla - pote La Serenisima 95 Gr</t>
   </si>
   <si>
@@ -727,6 +718,9 @@
     <t>Queso untable crema tradición La Paulina 290 Gr</t>
   </si>
   <si>
+    <t>Queso cremoso Ilolay 1 Kg</t>
+  </si>
+  <si>
     <t>Queso cremoso La Paulina 1 Kg</t>
   </si>
   <si>
@@ -808,9 +802,6 @@
     <t>Yogur cremoso entero vainilla - pote Milkaut 180 Gr</t>
   </si>
   <si>
-    <t>Yogur con fruta entero frutilla - pote Milkaut 150 Gr</t>
-  </si>
-  <si>
     <t>Yogur con fruta entero durazno - pote Milkaut 150 Gr</t>
   </si>
   <si>
@@ -830,9 +821,6 @@
   </si>
   <si>
     <t>Manteca pan aluminio calidad extra - paquete La Serenisima 200 Gr</t>
-  </si>
-  <si>
-    <t>Manteca pan aluminio calidad extra - paquete Milkaut 200 Gr</t>
   </si>
   <si>
     <t>Manteca pan aluminio calidad extra - paquete Tonadita 100 Gr</t>
@@ -1437,9 +1425,6 @@
       <c r="G6" t="s">
         <v>131</v>
       </c>
-      <c r="H6">
-        <v>4180</v>
-      </c>
       <c r="K6" s="2">
         <v>45968</v>
       </c>
@@ -1451,9 +1436,6 @@
       </c>
       <c r="N6" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="O6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1491,7 +1473,7 @@
         <v>143</v>
       </c>
       <c r="O7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1529,7 +1511,7 @@
         <v>144</v>
       </c>
       <c r="O8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1551,6 +1533,9 @@
       <c r="G9" t="s">
         <v>131</v>
       </c>
+      <c r="H9">
+        <v>3160</v>
+      </c>
       <c r="K9" s="2">
         <v>45968</v>
       </c>
@@ -1564,7 +1549,7 @@
         <v>145</v>
       </c>
       <c r="O9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1586,9 +1571,6 @@
       <c r="G10" t="s">
         <v>131</v>
       </c>
-      <c r="H10">
-        <v>4650</v>
-      </c>
       <c r="K10" s="2">
         <v>45968</v>
       </c>
@@ -1600,9 +1582,6 @@
       </c>
       <c r="N10" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="O10" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1637,7 +1616,7 @@
         <v>147</v>
       </c>
       <c r="O11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1672,7 +1651,7 @@
         <v>148</v>
       </c>
       <c r="O12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1742,7 +1721,7 @@
         <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1780,7 +1759,7 @@
         <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1802,9 +1781,6 @@
       <c r="G16" t="s">
         <v>132</v>
       </c>
-      <c r="H16">
-        <v>2540</v>
-      </c>
       <c r="K16" s="2">
         <v>45968</v>
       </c>
@@ -1816,9 +1792,6 @@
       </c>
       <c r="N16" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="O16" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="17" spans="2:15">
@@ -1856,7 +1829,7 @@
         <v>153</v>
       </c>
       <c r="O17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="2:15">
@@ -1894,7 +1867,7 @@
         <v>154</v>
       </c>
       <c r="O18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -1932,7 +1905,7 @@
         <v>155</v>
       </c>
       <c r="O19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="2:15">
@@ -1967,7 +1940,7 @@
         <v>156</v>
       </c>
       <c r="O20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="2:15">
@@ -2002,7 +1975,7 @@
         <v>157</v>
       </c>
       <c r="O21" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="2:15">
@@ -2037,7 +2010,7 @@
         <v>158</v>
       </c>
       <c r="O22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="2:15">
@@ -2075,7 +2048,7 @@
         <v>159</v>
       </c>
       <c r="O23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="2:15">
@@ -2113,7 +2086,7 @@
         <v>160</v>
       </c>
       <c r="O24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="2:15">
@@ -2148,7 +2121,7 @@
         <v>161</v>
       </c>
       <c r="O25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="2:15">
@@ -2186,7 +2159,7 @@
         <v>162</v>
       </c>
       <c r="O26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="2:15">
@@ -2224,7 +2197,7 @@
         <v>163</v>
       </c>
       <c r="O27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="2:15">
@@ -2262,7 +2235,7 @@
         <v>164</v>
       </c>
       <c r="O28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="2:15">
@@ -2300,7 +2273,7 @@
         <v>165</v>
       </c>
       <c r="O29" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="2:15">
@@ -2338,7 +2311,7 @@
         <v>166</v>
       </c>
       <c r="O30" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="2:15">
@@ -2376,7 +2349,7 @@
         <v>167</v>
       </c>
       <c r="O31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="2:15">
@@ -2398,6 +2371,9 @@
       <c r="G32" t="s">
         <v>131</v>
       </c>
+      <c r="H32">
+        <v>10900</v>
+      </c>
       <c r="K32" s="2">
         <v>45968</v>
       </c>
@@ -2409,6 +2385,9 @@
       </c>
       <c r="N32" s="3" t="s">
         <v>168</v>
+      </c>
+      <c r="O32" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="2:15">
@@ -2446,7 +2425,7 @@
         <v>169</v>
       </c>
       <c r="O33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="2:15">
@@ -2484,7 +2463,7 @@
         <v>170</v>
       </c>
       <c r="O34" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="2:15">
@@ -2522,7 +2501,7 @@
         <v>171</v>
       </c>
       <c r="O35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="2:15">
@@ -2545,7 +2524,7 @@
         <v>129</v>
       </c>
       <c r="H36">
-        <v>2100</v>
+        <v>2320</v>
       </c>
       <c r="K36" s="2">
         <v>45968</v>
@@ -2560,7 +2539,7 @@
         <v>172</v>
       </c>
       <c r="O36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="2:15">
@@ -2598,7 +2577,7 @@
         <v>173</v>
       </c>
       <c r="O37" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="2:15">
@@ -2633,7 +2612,7 @@
         <v>174</v>
       </c>
       <c r="O38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="2:15">
@@ -2671,7 +2650,7 @@
         <v>175</v>
       </c>
       <c r="O39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="2:15">
@@ -2709,7 +2688,7 @@
         <v>176</v>
       </c>
       <c r="O40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="2:15">
@@ -2747,7 +2726,7 @@
         <v>177</v>
       </c>
       <c r="O41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="2:15">
@@ -2782,7 +2761,7 @@
         <v>178</v>
       </c>
       <c r="O42" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="2:15">
@@ -2817,7 +2796,7 @@
         <v>179</v>
       </c>
       <c r="O43" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="2:15">
@@ -2855,7 +2834,7 @@
         <v>180</v>
       </c>
       <c r="O44" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="2:15">
@@ -2893,7 +2872,7 @@
         <v>181</v>
       </c>
       <c r="O45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="2:15">
@@ -2931,7 +2910,7 @@
         <v>182</v>
       </c>
       <c r="O46" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="2:15">
@@ -2969,7 +2948,7 @@
         <v>183</v>
       </c>
       <c r="O47" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="2:15">
@@ -3039,7 +3018,7 @@
         <v>185</v>
       </c>
       <c r="O49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="2:15">
@@ -3077,7 +3056,7 @@
         <v>186</v>
       </c>
       <c r="O50" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="2:15">
@@ -3115,7 +3094,7 @@
         <v>187</v>
       </c>
       <c r="O51" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="2:15">
@@ -3153,7 +3132,7 @@
         <v>188</v>
       </c>
       <c r="O52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="2:15">
@@ -3191,7 +3170,7 @@
         <v>189</v>
       </c>
       <c r="O53" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="2:15">
@@ -3214,7 +3193,7 @@
         <v>129</v>
       </c>
       <c r="H54">
-        <v>2100</v>
+        <v>2280</v>
       </c>
       <c r="K54" s="2">
         <v>45968</v>
@@ -3229,7 +3208,7 @@
         <v>190</v>
       </c>
       <c r="O54" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="2:15">
@@ -3252,7 +3231,7 @@
         <v>129</v>
       </c>
       <c r="H55">
-        <v>2100</v>
+        <v>2280</v>
       </c>
       <c r="K55" s="2">
         <v>45968</v>
@@ -3267,7 +3246,7 @@
         <v>191</v>
       </c>
       <c r="O55" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="2:15">
@@ -3305,7 +3284,7 @@
         <v>192</v>
       </c>
       <c r="O56" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="2:15">
@@ -3343,7 +3322,7 @@
         <v>193</v>
       </c>
       <c r="O57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="2:15">
@@ -3381,7 +3360,7 @@
         <v>194</v>
       </c>
       <c r="O58" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="2:15">
@@ -3419,7 +3398,7 @@
         <v>195</v>
       </c>
       <c r="O59" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="2:15">
@@ -3457,7 +3436,7 @@
         <v>196</v>
       </c>
       <c r="O60" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="2:15">
@@ -3479,9 +3458,6 @@
       <c r="G61" t="s">
         <v>131</v>
       </c>
-      <c r="H61">
-        <v>1760</v>
-      </c>
       <c r="K61" s="2">
         <v>45968</v>
       </c>
@@ -3493,9 +3469,6 @@
       </c>
       <c r="N61" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="O61" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="62" spans="2:15">
@@ -3533,7 +3506,7 @@
         <v>198</v>
       </c>
       <c r="O62" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="2:15">
@@ -3571,7 +3544,7 @@
         <v>199</v>
       </c>
       <c r="O63" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="2:15">
@@ -3609,7 +3582,7 @@
         <v>192</v>
       </c>
       <c r="O64" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="2:15">
@@ -3647,7 +3620,7 @@
         <v>192</v>
       </c>
       <c r="O65" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="2:15">
@@ -3685,7 +3658,7 @@
         <v>200</v>
       </c>
       <c r="O66" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="2:15">
@@ -3723,7 +3696,7 @@
         <v>201</v>
       </c>
       <c r="O67" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="2:15">
@@ -3746,7 +3719,7 @@
         <v>131</v>
       </c>
       <c r="H68">
-        <v>2596</v>
+        <v>2680</v>
       </c>
       <c r="K68" s="2">
         <v>45968</v>
@@ -3761,7 +3734,7 @@
         <v>202</v>
       </c>
       <c r="O68" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="2:15">
@@ -3784,7 +3757,7 @@
         <v>131</v>
       </c>
       <c r="H69">
-        <v>1280</v>
+        <v>1300</v>
       </c>
       <c r="K69" s="2">
         <v>45968</v>
@@ -3799,7 +3772,7 @@
         <v>203</v>
       </c>
       <c r="O69" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="2:15">
@@ -3837,7 +3810,7 @@
         <v>204</v>
       </c>
       <c r="O70" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="2:15">
@@ -3859,9 +3832,6 @@
       <c r="G71" t="s">
         <v>131</v>
       </c>
-      <c r="H71">
-        <v>3890</v>
-      </c>
       <c r="K71" s="2">
         <v>45968</v>
       </c>
@@ -3873,9 +3843,6 @@
       </c>
       <c r="N71" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="O71" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="72" spans="2:15">
@@ -3913,7 +3880,7 @@
         <v>206</v>
       </c>
       <c r="O72" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="2:15">
@@ -3951,7 +3918,7 @@
         <v>207</v>
       </c>
       <c r="O73" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/auxiliares_data_entry/kilbel/kilbel_con_precios.xlsx
+++ b/auxiliares_data_entry/kilbel/kilbel_con_precios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="333">
   <si>
     <t>COD</t>
   </si>
@@ -61,6 +61,9 @@
     <t>nombre_en_tienda</t>
   </si>
   <si>
+    <t>sku</t>
+  </si>
+  <si>
     <t>99-1333100000009</t>
   </si>
   <si>
@@ -640,9 +643,6 @@
     <t>https://www.kilbelonline.com/lacteos/mantecas-y-margarinas/todos/manteca-pan-aluminio-calidad-extra-paquete-tonadita-200-gr/art_22747/</t>
   </si>
   <si>
-    <t>Leche chocolatada Tregar 1 Lt</t>
-  </si>
-  <si>
     <t>Leche chocolatada Tregar 200 Ml</t>
   </si>
   <si>
@@ -652,15 +652,15 @@
     <t>Crema de leche - pote La Paulina 350 Cm3</t>
   </si>
   <si>
+    <t>Crema de leche doble - pote Ilolay 350 Cm3</t>
+  </si>
+  <si>
     <t>Crema de leche - pote Ilolay 200 Cm3</t>
   </si>
   <si>
     <t>Crema de leche doble - pote Tregar 200 Cm3</t>
   </si>
   <si>
-    <t>Crema de leche doble - pote Milkaut 200 Cm3</t>
-  </si>
-  <si>
     <t>Dulce de leche Tregar 400 Gr</t>
   </si>
   <si>
@@ -673,6 +673,9 @@
     <t>Flan vainilla súper cremoso - pote Danette 95 Gr</t>
   </si>
   <si>
+    <t>Postre vainilla - pack Serenito 95 Gr</t>
+  </si>
+  <si>
     <t>Postre vainilla - pote La Serenisima 95 Gr</t>
   </si>
   <si>
@@ -799,9 +802,6 @@
     <t>Yogur cremoso frutilla Milkaut 120 Gr</t>
   </si>
   <si>
-    <t>Yogur cremoso entero vainilla - pote Milkaut 180 Gr</t>
-  </si>
-  <si>
     <t>Yogur con fruta entero durazno - pote Milkaut 150 Gr</t>
   </si>
   <si>
@@ -827,6 +827,192 @@
   </si>
   <si>
     <t>Manteca pan aluminio calidad extra - paquete Tonadita 200 Gr</t>
+  </si>
+  <si>
+    <t>34763</t>
+  </si>
+  <si>
+    <t>43001</t>
+  </si>
+  <si>
+    <t>43002</t>
+  </si>
+  <si>
+    <t>30298</t>
+  </si>
+  <si>
+    <t>15791</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>20456</t>
+  </si>
+  <si>
+    <t>38429</t>
+  </si>
+  <si>
+    <t>21494</t>
+  </si>
+  <si>
+    <t>40515</t>
+  </si>
+  <si>
+    <t>37048</t>
+  </si>
+  <si>
+    <t>42684</t>
+  </si>
+  <si>
+    <t>35014</t>
+  </si>
+  <si>
+    <t>35016</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>31551</t>
+  </si>
+  <si>
+    <t>37642</t>
+  </si>
+  <si>
+    <t>14433</t>
+  </si>
+  <si>
+    <t>3513</t>
+  </si>
+  <si>
+    <t>36652</t>
+  </si>
+  <si>
+    <t>29235</t>
+  </si>
+  <si>
+    <t>22853</t>
+  </si>
+  <si>
+    <t>18342</t>
+  </si>
+  <si>
+    <t>18343</t>
+  </si>
+  <si>
+    <t>26117</t>
+  </si>
+  <si>
+    <t>27365</t>
+  </si>
+  <si>
+    <t>37035</t>
+  </si>
+  <si>
+    <t>42847</t>
+  </si>
+  <si>
+    <t>37131</t>
+  </si>
+  <si>
+    <t>31382</t>
+  </si>
+  <si>
+    <t>26740</t>
+  </si>
+  <si>
+    <t>1160</t>
+  </si>
+  <si>
+    <t>30622</t>
+  </si>
+  <si>
+    <t>3539</t>
+  </si>
+  <si>
+    <t>26190</t>
+  </si>
+  <si>
+    <t>37172</t>
+  </si>
+  <si>
+    <t>40301</t>
+  </si>
+  <si>
+    <t>34107</t>
+  </si>
+  <si>
+    <t>39346</t>
+  </si>
+  <si>
+    <t>39347</t>
+  </si>
+  <si>
+    <t>39337</t>
+  </si>
+  <si>
+    <t>35324</t>
+  </si>
+  <si>
+    <t>39340</t>
+  </si>
+  <si>
+    <t>43849</t>
+  </si>
+  <si>
+    <t>26508</t>
+  </si>
+  <si>
+    <t>39348</t>
+  </si>
+  <si>
+    <t>39349</t>
+  </si>
+  <si>
+    <t>35107</t>
+  </si>
+  <si>
+    <t>35109</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>32667</t>
+  </si>
+  <si>
+    <t>43397</t>
+  </si>
+  <si>
+    <t>43276</t>
+  </si>
+  <si>
+    <t>39065</t>
+  </si>
+  <si>
+    <t>39066</t>
+  </si>
+  <si>
+    <t>43399</t>
+  </si>
+  <si>
+    <t>43275</t>
+  </si>
+  <si>
+    <t>15554</t>
+  </si>
+  <si>
+    <t>34398</t>
+  </si>
+  <si>
+    <t>35019</t>
+  </si>
+  <si>
+    <t>35162</t>
+  </si>
+  <si>
+    <t>35161</t>
   </si>
 </sst>
 </file>
@@ -1201,13 +1387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1253,63 +1439,60 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="B2">
         <v>7793913001990</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2">
-        <v>2460</v>
+        <v>130</v>
       </c>
       <c r="K2" s="2">
         <v>45968</v>
       </c>
       <c r="L2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="B3">
         <v>7793913002119</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H3">
         <v>1020</v>
@@ -1318,144 +1501,162 @@
         <v>45968</v>
       </c>
       <c r="L3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4">
         <v>7790398000265</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H4">
-        <v>2220</v>
+        <v>2320</v>
       </c>
       <c r="K4" s="2">
         <v>45968</v>
       </c>
       <c r="L4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="B5">
         <v>7790398000272</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H5">
-        <v>3790</v>
+        <v>3920</v>
       </c>
       <c r="K5" s="2">
         <v>45968</v>
       </c>
       <c r="L5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="B6">
         <v>7790787030125</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="H6">
+        <v>4180</v>
       </c>
       <c r="K6" s="2">
         <v>45968</v>
       </c>
       <c r="L6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>143</v>
+      </c>
+      <c r="O6" t="s">
+        <v>212</v>
+      </c>
+      <c r="P6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="B7">
         <v>7790787030132</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H7">
         <v>2290</v>
@@ -1464,246 +1665,252 @@
         <v>45968</v>
       </c>
       <c r="L7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>213</v>
+      </c>
+      <c r="P7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="B8">
         <v>7793913013436</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H8">
-        <v>2870</v>
+        <v>2950</v>
       </c>
       <c r="K8" s="2">
         <v>45968</v>
       </c>
       <c r="L8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>214</v>
+      </c>
+      <c r="P8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="B9">
         <v>7794820902035</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9">
-        <v>3160</v>
+        <v>132</v>
       </c>
       <c r="K9" s="2">
         <v>45968</v>
       </c>
       <c r="L9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="B10">
         <v>7794820902967</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K10" s="2">
         <v>45968</v>
       </c>
       <c r="L10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="B11">
         <v>779391300093</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K11" s="2">
         <v>45968</v>
       </c>
       <c r="L11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O11" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="B12">
         <v>7790244001453</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K12" s="2">
         <v>45968</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O12" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="B13">
         <v>7790244941551</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K13" s="2">
         <v>45968</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="B14">
         <v>7790787153664</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H14">
         <v>2590</v>
@@ -1712,36 +1919,39 @@
         <v>45968</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="B15">
         <v>7791337008168</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H15">
         <v>2820</v>
@@ -1750,68 +1960,80 @@
         <v>45968</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="B16">
         <v>7791337008434</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="H16">
+        <v>2540</v>
       </c>
       <c r="K16" s="2">
         <v>45968</v>
       </c>
       <c r="L16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>219</v>
+      </c>
+      <c r="P16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17">
         <v>7791337008502</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H17">
         <v>998</v>
@@ -1820,36 +2042,39 @@
         <v>45968</v>
       </c>
       <c r="L17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
+        <v>220</v>
+      </c>
+      <c r="P17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
       <c r="B18">
         <v>7790742348302</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H18">
         <v>1500</v>
@@ -1858,36 +2083,39 @@
         <v>45968</v>
       </c>
       <c r="L18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
+        <v>221</v>
+      </c>
+      <c r="P18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
       <c r="B19">
         <v>7790742363008</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19">
         <v>1660</v>
@@ -1896,141 +2124,153 @@
         <v>45968</v>
       </c>
       <c r="L19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
+        <v>222</v>
+      </c>
+      <c r="P19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
       <c r="B20">
         <v>7790787949649</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K20" s="2">
         <v>45968</v>
       </c>
       <c r="L20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15">
+        <v>223</v>
+      </c>
+      <c r="P20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
       <c r="B21">
         <v>7793913001822</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K21" s="2">
         <v>45968</v>
       </c>
       <c r="L21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15">
+        <v>224</v>
+      </c>
+      <c r="P21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
       <c r="B22">
         <v>7798095171363</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K22" s="2">
         <v>45968</v>
       </c>
       <c r="L22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15">
+        <v>225</v>
+      </c>
+      <c r="P22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H23">
         <v>22100</v>
@@ -2039,36 +2279,39 @@
         <v>45968</v>
       </c>
       <c r="L23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O23" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15">
+        <v>226</v>
+      </c>
+      <c r="P23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
       <c r="B24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H24">
         <v>29250</v>
@@ -2077,71 +2320,77 @@
         <v>45968</v>
       </c>
       <c r="L24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O24" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15">
+        <v>227</v>
+      </c>
+      <c r="P24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
       <c r="B25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K25" s="2">
         <v>45968</v>
       </c>
       <c r="L25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O25" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15">
+        <v>228</v>
+      </c>
+      <c r="P25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H26">
         <v>42370</v>
@@ -2150,36 +2399,39 @@
         <v>45968</v>
       </c>
       <c r="L26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O26" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15">
+        <v>229</v>
+      </c>
+      <c r="P26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
       <c r="B27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H27">
         <v>29120</v>
@@ -2188,36 +2440,39 @@
         <v>45968</v>
       </c>
       <c r="L27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O27" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15">
+        <v>230</v>
+      </c>
+      <c r="P27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
       <c r="B28">
         <v>7791337061361</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H28">
         <v>4290</v>
@@ -2226,36 +2481,39 @@
         <v>45968</v>
       </c>
       <c r="L28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15">
+        <v>231</v>
+      </c>
+      <c r="P28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
       <c r="B29">
         <v>7791337061385</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H29">
         <v>4290</v>
@@ -2264,112 +2522,121 @@
         <v>45968</v>
       </c>
       <c r="L29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15">
+        <v>232</v>
+      </c>
+      <c r="P29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
       <c r="B30">
         <v>7793913013726</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H30">
-        <v>3480</v>
+        <v>3390</v>
       </c>
       <c r="K30" s="2">
         <v>45968</v>
       </c>
       <c r="L30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
+        <v>233</v>
+      </c>
+      <c r="P30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
       <c r="B31">
         <v>7794990879656</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H31">
-        <v>2770</v>
+        <v>2860</v>
       </c>
       <c r="K31" s="2">
         <v>45968</v>
       </c>
       <c r="L31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O31" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15">
+        <v>234</v>
+      </c>
+      <c r="P31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
       <c r="B32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H32">
         <v>10900</v>
@@ -2378,36 +2645,39 @@
         <v>45968</v>
       </c>
       <c r="L32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O32" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15">
+        <v>235</v>
+      </c>
+      <c r="P32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
       <c r="B33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H33">
         <v>7990</v>
@@ -2416,36 +2686,39 @@
         <v>45968</v>
       </c>
       <c r="L33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O33" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15">
+        <v>236</v>
+      </c>
+      <c r="P33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
       <c r="B34">
         <v>7790398100132</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H34">
         <v>4820</v>
@@ -2454,36 +2727,39 @@
         <v>45968</v>
       </c>
       <c r="L34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O34" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15">
+        <v>237</v>
+      </c>
+      <c r="P34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
       <c r="B35">
         <v>7790742321701</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H35">
         <v>2820</v>
@@ -2492,74 +2768,80 @@
         <v>45968</v>
       </c>
       <c r="L35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15">
+        <v>238</v>
+      </c>
+      <c r="P35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
       <c r="B36">
         <v>7793913013610</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H36">
-        <v>2320</v>
+        <v>2430</v>
       </c>
       <c r="K36" s="2">
         <v>45968</v>
       </c>
       <c r="L36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15">
+        <v>239</v>
+      </c>
+      <c r="P36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
       <c r="B37">
         <v>7794820014967</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H37">
         <v>2860</v>
@@ -2568,71 +2850,77 @@
         <v>45968</v>
       </c>
       <c r="L37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O37" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15">
+        <v>240</v>
+      </c>
+      <c r="P37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16">
       <c r="B38">
         <v>7794990878932</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K38" s="2">
         <v>45968</v>
       </c>
       <c r="L38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O38" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15">
+        <v>241</v>
+      </c>
+      <c r="P38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16">
       <c r="B39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H39">
         <v>33600</v>
@@ -2641,36 +2929,39 @@
         <v>45968</v>
       </c>
       <c r="L39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O39" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15">
+        <v>242</v>
+      </c>
+      <c r="P39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16">
       <c r="B40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H40">
         <v>30670</v>
@@ -2679,36 +2970,39 @@
         <v>45968</v>
       </c>
       <c r="L40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O40" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15">
+        <v>243</v>
+      </c>
+      <c r="P40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
       <c r="B41">
         <v>7790787960378</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H41">
         <v>795</v>
@@ -2717,106 +3011,115 @@
         <v>45968</v>
       </c>
       <c r="L41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O41" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15">
+        <v>244</v>
+      </c>
+      <c r="P41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16">
       <c r="B42">
         <v>7790787960460</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K42" s="2">
         <v>45968</v>
       </c>
       <c r="L42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O42" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15">
+        <v>245</v>
+      </c>
+      <c r="P42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16">
       <c r="B43">
         <v>7790787960514</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K43" s="2">
         <v>45968</v>
       </c>
       <c r="L43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O43" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15">
+        <v>246</v>
+      </c>
+      <c r="P43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16">
       <c r="B44">
         <v>7791337007420</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H44">
         <v>900</v>
@@ -2825,36 +3128,39 @@
         <v>45968</v>
       </c>
       <c r="L44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O44" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15">
+        <v>247</v>
+      </c>
+      <c r="P44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16">
       <c r="B45">
         <v>7791337007437</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H45">
         <v>900</v>
@@ -2863,36 +3169,39 @@
         <v>45968</v>
       </c>
       <c r="L45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O45" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15">
+        <v>248</v>
+      </c>
+      <c r="P45" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16">
       <c r="B46">
         <v>7791337007444</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H46">
         <v>1400</v>
@@ -2901,36 +3210,39 @@
         <v>45968</v>
       </c>
       <c r="L46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O46" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15">
+        <v>249</v>
+      </c>
+      <c r="P46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16">
       <c r="B47">
         <v>7791337007574</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H47">
         <v>2180</v>
@@ -2939,68 +3251,71 @@
         <v>45968</v>
       </c>
       <c r="L47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O47" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15">
+        <v>250</v>
+      </c>
+      <c r="P47" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16">
       <c r="B48">
         <v>7791337007611</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K48" s="2">
         <v>45968</v>
       </c>
       <c r="L48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16">
       <c r="B49">
         <v>7791337007697</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H49">
         <v>2100</v>
@@ -3009,36 +3324,39 @@
         <v>45968</v>
       </c>
       <c r="L49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O49" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15">
+        <v>251</v>
+      </c>
+      <c r="P49" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16">
       <c r="B50">
         <v>7791337008229</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F50" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H50">
         <v>4500</v>
@@ -3047,36 +3365,39 @@
         <v>45968</v>
       </c>
       <c r="L50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O50" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15">
+        <v>252</v>
+      </c>
+      <c r="P50" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16">
       <c r="B51">
         <v>7791337008304</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F51" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H51">
         <v>1700</v>
@@ -3085,36 +3406,39 @@
         <v>45968</v>
       </c>
       <c r="L51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O51" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15">
+        <v>253</v>
+      </c>
+      <c r="P51" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16">
       <c r="B52">
         <v>7791337008311</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H52">
         <v>2100</v>
@@ -3123,36 +3447,39 @@
         <v>45968</v>
       </c>
       <c r="L52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O52" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15">
+        <v>254</v>
+      </c>
+      <c r="P52" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16">
       <c r="B53">
         <v>7791337008335</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H53">
         <v>2100</v>
@@ -3161,112 +3488,121 @@
         <v>45968</v>
       </c>
       <c r="L53" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O53" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15">
+        <v>255</v>
+      </c>
+      <c r="P53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16">
       <c r="B54">
         <v>7793913013597</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H54">
-        <v>2280</v>
+        <v>2395</v>
       </c>
       <c r="K54" s="2">
         <v>45968</v>
       </c>
       <c r="L54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O54" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15">
+        <v>256</v>
+      </c>
+      <c r="P54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16">
       <c r="B55">
         <v>7793913013603</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G55" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H55">
-        <v>2280</v>
+        <v>2395</v>
       </c>
       <c r="K55" s="2">
         <v>45968</v>
       </c>
       <c r="L55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O55" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15">
+        <v>257</v>
+      </c>
+      <c r="P55" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16">
       <c r="B56">
         <v>7794820902257</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H56">
         <v>2550</v>
@@ -3275,36 +3611,39 @@
         <v>45968</v>
       </c>
       <c r="L56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O56" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15">
+        <v>258</v>
+      </c>
+      <c r="P56" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16">
       <c r="B57">
         <v>7794820902264</v>
       </c>
       <c r="C57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H57">
         <v>2550</v>
@@ -3313,36 +3652,39 @@
         <v>45968</v>
       </c>
       <c r="L57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O57" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15">
+        <v>259</v>
+      </c>
+      <c r="P57" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16">
       <c r="B58">
         <v>7794820902745</v>
       </c>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H58">
         <v>1450</v>
@@ -3351,36 +3693,39 @@
         <v>45968</v>
       </c>
       <c r="L58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15">
+        <v>260</v>
+      </c>
+      <c r="P58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16">
       <c r="B59">
         <v>7794820902752</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H59">
         <v>998</v>
@@ -3389,106 +3734,103 @@
         <v>45968</v>
       </c>
       <c r="L59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O59" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15">
+        <v>261</v>
+      </c>
+      <c r="P59" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16">
       <c r="B60">
         <v>7794820902769</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G60" t="s">
-        <v>131</v>
-      </c>
-      <c r="H60">
-        <v>1430</v>
+        <v>132</v>
       </c>
       <c r="K60" s="2">
         <v>45968</v>
       </c>
       <c r="L60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="O60" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16">
       <c r="B61">
         <v>7794820902813</v>
       </c>
       <c r="C61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K61" s="2">
         <v>45968</v>
       </c>
       <c r="L61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16">
       <c r="B62">
         <v>7794820902820</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H62">
         <v>1760</v>
@@ -3497,36 +3839,39 @@
         <v>45968</v>
       </c>
       <c r="L62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O62" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="63" spans="2:15">
+      <c r="P62" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16">
       <c r="B63">
         <v>7794820902844</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H63">
         <v>2070</v>
@@ -3535,36 +3880,39 @@
         <v>45968</v>
       </c>
       <c r="L63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M63" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O63" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="64" spans="2:15">
+      <c r="P63" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16">
       <c r="B64">
         <v>7794820902868</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F64" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G64" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H64">
         <v>2550</v>
@@ -3573,36 +3921,39 @@
         <v>45968</v>
       </c>
       <c r="L64" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15">
+        <v>258</v>
+      </c>
+      <c r="P64" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16">
       <c r="B65">
         <v>7794820902882</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E65" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F65" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H65">
         <v>2550</v>
@@ -3611,36 +3962,39 @@
         <v>45968</v>
       </c>
       <c r="L65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15">
+        <v>258</v>
+      </c>
+      <c r="P65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16">
       <c r="B66">
         <v>7794820903209</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F66" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H66">
         <v>2990</v>
@@ -3649,36 +4003,39 @@
         <v>45968</v>
       </c>
       <c r="L66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O66" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="67" spans="2:15">
+      <c r="P66" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16">
       <c r="B67">
         <v>7794820903223</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F67" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H67">
         <v>998</v>
@@ -3687,36 +4044,39 @@
         <v>45968</v>
       </c>
       <c r="L67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O67" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="68" spans="2:15">
+      <c r="P67" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16">
       <c r="B68">
         <v>7790787949670</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F68" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G68" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H68">
         <v>2680</v>
@@ -3725,36 +4085,39 @@
         <v>45968</v>
       </c>
       <c r="L68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="69" spans="2:15">
+      <c r="P68" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16">
       <c r="B69">
         <v>7790787949687</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F69" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G69" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H69">
         <v>1300</v>
@@ -3763,36 +4126,39 @@
         <v>45968</v>
       </c>
       <c r="L69" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M69" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O69" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="70" spans="2:15">
+      <c r="P69" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16">
       <c r="B70">
         <v>7793940054006</v>
       </c>
       <c r="C70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G70" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H70">
         <v>4120</v>
@@ -3801,68 +4167,71 @@
         <v>45968</v>
       </c>
       <c r="L70" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O70" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="71" spans="2:15">
+      <c r="P70" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16">
       <c r="B71">
         <v>7794820000601</v>
       </c>
       <c r="C71" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E71" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F71" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G71" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K71" s="2">
         <v>45968</v>
       </c>
       <c r="L71" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16">
       <c r="B72">
         <v>7798060850019</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D72" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E72" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F72" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G72" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H72">
         <v>1720</v>
@@ -3871,36 +4240,39 @@
         <v>45968</v>
       </c>
       <c r="L72" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O72" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="73" spans="2:15">
+      <c r="P72" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16">
       <c r="B73">
         <v>7798060853300</v>
       </c>
       <c r="C73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G73" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H73">
         <v>3150</v>
@@ -3909,16 +4281,19 @@
         <v>45968</v>
       </c>
       <c r="L73" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M73" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O73" t="s">
         <v>270</v>
+      </c>
+      <c r="P73" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
